--- a/biology/Médecine/Grand_omentum/Grand_omentum.xlsx
+++ b/biology/Médecine/Grand_omentum/Grand_omentum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand omentum ou grand epiploon est une structure péritonéale formée par l'accolement de 2 méso de péritoine viscéral, il représente un grand tablier graisseux déployé dans la cavité abdominale. Il est issu du développement caudal de la poche rétro-gastrique. Il constitue un repère important en termes d'anatomie, régionalisant la cavité abdominale en deux parties distinctes, sus mésocolique, au-dessus de celui-ci, sous mésocolique, au-dessous de celui-ci (ce qu'il recouvre, en l'occurrence le jejunum et l'iléum ou intestin grêle), et la région pelvienne.
 Il est constitué majoritairement de cellules adipeuses. Sa vascularisation importante se fait par les artères gastro-épiploïques qui forment dans le grand omentum l'arcade de Barkow.
